--- a/Data Cleaning Excel Tutorial.xlsx
+++ b/Data Cleaning Excel Tutorial.xlsx
@@ -9,17 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="7605"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US_Presidents Excel Tutorial Da'!$C$1:$C$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US_Presidents Excel Tutorial Da'!$A$1:$A$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>S.No.</t>
   </si>
@@ -263,9 +259,6 @@
   </si>
   <si>
     <t>Nonpartisan</t>
-  </si>
-  <si>
-    <t>Demorcatic</t>
   </si>
   <si>
     <t>salary</t>
@@ -836,7 +829,112 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -847,32 +945,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sales"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sales"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1264,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3">
         <v>15000</v>
@@ -1287,7 +1359,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3">
         <v>20000</v>
@@ -1304,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1448,7 +1520,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3">
         <v>55000</v>
@@ -1764,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>31</v>
@@ -1853,19 +1925,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3">
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="F30" s="4">
         <v>44391</v>
@@ -1876,19 +1948,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3">
-        <v>235000</v>
+        <v>245000</v>
       </c>
       <c r="F31" s="4">
         <v>44391</v>
@@ -1899,19 +1971,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E32" s="3">
-        <v>245000</v>
+        <v>255000</v>
       </c>
       <c r="F32" s="4">
         <v>44391</v>
@@ -1922,19 +1994,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="3">
-        <v>255000</v>
+        <v>265000</v>
       </c>
       <c r="F33" s="4">
         <v>44391</v>
@@ -1945,19 +2017,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="F34" s="4">
         <v>44391</v>
@@ -1968,19 +2040,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E35" s="3">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="F35" s="4">
         <v>44391</v>
@@ -1991,19 +2063,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="3">
-        <v>285000</v>
+        <v>295000</v>
       </c>
       <c r="F36" s="4">
         <v>44391</v>
@@ -2014,19 +2086,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E37" s="3">
-        <v>295000</v>
+        <v>305000</v>
       </c>
       <c r="F37" s="4">
         <v>44391</v>
@@ -2037,19 +2109,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E38" s="3">
-        <v>305000</v>
+        <v>315000</v>
       </c>
       <c r="F38" s="4">
         <v>44391</v>
@@ -2060,19 +2132,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E39" s="3">
-        <v>315000</v>
+        <v>325000</v>
       </c>
       <c r="F39" s="4">
         <v>44391</v>
@@ -2083,19 +2155,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E40" s="3">
-        <v>325000</v>
+        <v>335000</v>
       </c>
       <c r="F40" s="4">
         <v>44391</v>
@@ -2106,19 +2178,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E41" s="3">
-        <v>335000</v>
+        <v>345000</v>
       </c>
       <c r="F41" s="4">
         <v>44391</v>
@@ -2129,19 +2201,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42" s="3">
-        <v>345000</v>
+        <v>355000</v>
       </c>
       <c r="F42" s="4">
         <v>44391</v>
@@ -2152,19 +2224,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43" s="3">
-        <v>355000</v>
+        <v>365000</v>
       </c>
       <c r="F43" s="4">
         <v>44391</v>
@@ -2175,19 +2247,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44" s="3">
-        <v>365000</v>
+        <v>375000</v>
       </c>
       <c r="F44" s="4">
         <v>44391</v>
@@ -2198,42 +2270,42 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E45" s="3">
-        <v>375000</v>
+        <v>395000</v>
       </c>
       <c r="F45" s="4">
         <v>44391</v>
       </c>
       <c r="G45" s="4">
-        <v>40972</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E46" s="3">
-        <v>395000</v>
+        <v>405000</v>
       </c>
       <c r="F46" s="4">
         <v>44391</v>
@@ -2243,30 +2315,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="3">
-        <v>405000</v>
-      </c>
-      <c r="F47" s="4">
-        <v>44391</v>
-      </c>
-      <c r="G47" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F48"/>
+      <c r="F47"/>
     </row>
   </sheetData>
   <dataConsolidate/>
